--- a/database/httpswwwoswwawplplpublikacje.xlsx
+++ b/database/httpswwwoswwawplplpublikacje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,6 +1269,138 @@
       </c>
       <c r="B71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/?text=&amp;amp;page=405</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ostatnia strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2021-12-21/konserwatywna-zmiana-w-cdu</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Konserwatywna zmiana w CDU</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2021-12-21/ukraina-przygotowania-do-obrony-totalnej</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ukraina przygotowania do obrony totalnej</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2021-12-22/nowa-odslona-presji-chin-na-litwe-uderzenie-w-europejskie-lancuchy</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nowa odsłona presji Chin na Litwę – uderzenie w europejskie łańcuchy dostaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2021-12-22/w-gotowosci-do-wojny-doroczna-narada-rosyjskiego-resortu-obrony</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>W gotowości do wojny Doroczna narada rosyjskiego resortu obrony</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2021-12-23/inicjatywa-open-balkan-kreta-droga-ku-regionalnemu-mini-schengen</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Inicjatywa Open Balkan – kręta droga ku regionalnemu Mini-Schengen</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2021-12-27/kryzys-gospodarczy-w-turcji</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Kryzys gospodarczy w Turcji</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2021-12-28/rumunia-konstytucja-ponad-prawem-ue</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Rumunia konstytucja ponad prawem UE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2021-12-29/pod-dyktando-pekinu-wybory-do-rady-legislacyjnej-hongkongu</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Pod dyktando Pekinu wybory do Rady Legislacyjnej Hongkongu</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2021-12-29/rehabilitacja-sowieckiego-totalitaryzmu-kreml-likwiduje-memorial</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Rehabilitacja sowieckiego totalitaryzmu Kreml likwiduje Memoriał</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/komentarze-osw/2021-12-22/zelenski-vs-achmetow-proba-sil</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Zełenski vs Achmetow – próba sił</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwoswwawplplpublikacje.xlsx
+++ b/database/httpswwwoswwawplplpublikacje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,6 +1401,150 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/?text=&amp;amp;page=415</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Ostatnia strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-03/niemcy-przygotowania-do-braku-dostaw-surowcow-z-rosji</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Niemcy przygotowania do braku dostaw surowców z Rosji</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-03/rosja-rozprawa-z-echem-moskwy-i-telewizja-dozd</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Rosja rozprawa z Echem Moskwy i telewizją Dożdʹ</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-04/bialorus-nowe-sankcje-ue-za-udzial-w-agresji-na-ukraine</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Białoruś nowe sankcje UE za udział w agresji na Ukrainę</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-04/masowe-sankcje-posrednie-uderzaja-w-rosje</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Masowe sankcje pośrednie uderzają w Rosję</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-04/rosyjski-atak-na-ukraine-stan-po-osmiu-dniach</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Rosyjski atak na Ukrainę – stan po ośmiu dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-05/rosyjski-atak-na-ukraine-stan-po-dziewieciu-dniach</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Rosyjski atak na Ukrainę – stan po dziewięciu dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-06/rosyjski-atak-na-ukraine-stan-po-dziesieciu-dniach</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Rosyjski atak na Ukrainę – stan po dziesięciu dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-07/moldawia-kryzys-uchodzczy-i-zagrozenie-rosyjskie</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Mołdawia kryzys uchodźczy i zagrożenie rosyjskie</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-07/rosyjski-atak-na-ukraine-stan-po-jedenastu-dniach</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Rosyjski atak na Ukrainę – stan po jedenastu dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-07/sankcje-wobec-rosji-rosnaca-nerwowosc-wladz</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sankcje wobec Rosji rosnąca nerwowość władz</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje?f%5B0%5D=data_wydania%3A2022</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwoswwawplplpublikacje.xlsx
+++ b/database/httpswwwoswwawplplpublikacje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,6 +1545,138 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/?text=&amp;amp;page=417</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Ostatnia strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-14/rosyjski-atak-na-ukraine-stan-po-18-dniach</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Rosyjski atak na Ukrainę – stan po 18 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-15/kreml-odcina-zachodnie-sieci-spolecznosciowe</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Kreml odcina zachodnie sieci społecznościowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-15/rosyjski-atak-na-ukraine-stan-po-19-dniach</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Rosyjski atak na Ukrainę – stan po 19 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-15/turkmenistan-poczatek-dynastii-berdimuhamedowow</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Turkmenistan początek dynastii Berdimuhamedowów</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-15/wzrost-wydatkow-obronnych-w-rfn-kwestia-reguly-wydatkowej</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Wzrost wydatków obronnych w RFN – kwestia reguły wydatkowej</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-16/pierwsze-skutki-wojny-dla-gospodarki-ukrainy</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Pierwsze skutki wojny dla gospodarki Ukrainy</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-16/rosyjski-atak-na-ukraine-stan-po-20-dniach</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Rosyjski atak na Ukrainę – stan po 20 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-03-16/zachod-i-rosja-niesymetryczne-ciosy-sankcyjne</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Zachód i Rosja niesymetryczne ciosy sankcyjne</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/komentarze-osw/2022-03-14/ukraina-konsolidacja-spoleczna-przeciwko-agresorowi</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Ukraina konsolidacja społeczna przeciwko agresorowi</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/komentarze-osw/2022-03-16/trzy-tygodnie-wojny-taktyczne-dylematy-putina</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Trzy tygodnie wojny – taktyczne dylematy Putina</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwoswwawplplpublikacje.xlsx
+++ b/database/httpswwwoswwawplplpublikacje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,6 +1677,838 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="#"</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>wcześniej</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/bip"</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Biuletyn Informacji Publicznej</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/en/publikacje"</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl"</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/biblioteka"</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Biblioteka</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/bip"</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>BIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/contact"</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Kontakt</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/deklaracja-dostepnosci"</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Deklaracja dostępności</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/eksperci"</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Zespół</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/filmy"</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Wideo</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/o-nas"</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Ośrodek</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/podcasty"</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Podcasty</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/polityka-prywatnosci"</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Polityka prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/projekty"</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Projekty</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje"</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/analizy/2022-03-29/atak-rosji-na-ukraine-stan-po-33-dniach"</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 33 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/analizy/2022-03-30/atak-rosji-na-ukraine-stan-po-34-dniach"</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 34 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/analizy/2022-03-30/tryumf-spd-w-saarze-wzmocnienie-kanclerza-scholza"</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Tryumf SPD w Saarze – wzmocnienie kanclerza Scholza</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/analizy/2022-03-31/atak-rosji-na-ukraine-stan-po-35-dniach"</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 35 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/analizy/2022-03-31/rosja-gaz-jednak-za-waluty"</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Rosja gaz jednak za waluty</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/analizy/2022-04-01/atak-rosji-na-ukraine-stan-po-36-dniach"</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 36 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/analizy/2022-04-02/atak-rosji-na-ukraine-stan-po-37-dniach"</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 37 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/analizy/2022-04-03/atak-rosji-na-ukraine-stan-po-38-dniach"</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 38 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/komentarze-osw/2022-03-30/wojna-na-ukrainie-konsekwencje-dla-bundeswehry-i-niemieckiej"</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Wojna na Ukrainie konsekwencje dla Bundeswehry i niemieckiej polityki w NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje/komentarze-osw/2022-03-31/monitor-osw-wybory-na-wegrzech-numer-4"</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Monitor OSW Wybory na Węgrzech – numer 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2001"</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2002"</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2003"</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2004"</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2005"</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2006"</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2007"</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2008"</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2009"</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2010"</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2011"</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2012"</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2013"</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2014"</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2015"</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2016"</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2017"</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2018"</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2019"</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2020"</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2021"</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=data_wydania%3A2022"</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A112"</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Europa Płd.-Wsch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A20"</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Rosja</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A21"</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Europa Śr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A22"</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A229"</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Turcja</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A395"</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Chiny</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A555"</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Europa Wsch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A557"</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Kaukaz i Azja Centr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A662"</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Region nord.-bałt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=obszary%3A758"</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Izrael</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=publikacje%3A42"</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Komentarze OSW</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=publikacje%3A481"</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Analizy</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?f%5B0%5D=publikacje%3A740"</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Raporty</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/publikacje?text="</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Publikacje</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/rada-osw"</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Rada OSW</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/rss.xml"</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="/pl/wydarzenia"</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Wydarzenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="?text=&amp;amp;page=0"</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="?text=&amp;amp;page=1"</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Następna strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="?text=&amp;amp;page=2"</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="?text=&amp;amp;page=424"</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Ostatnia strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="https://www.facebook.com/OsrodekStudiowWschodnich"</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="https://www.linkedin.com/company/centre-for-eastern-studies-osw-"</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/href="https://www.twitter.com/OSW_pl"</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwoswwawplplpublikacje.xlsx
+++ b/database/httpswwwoswwawplplpublikacje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2509,6 +2509,138 @@
       </c>
       <c r="B176" t="inlineStr"/>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/?text=&amp;amp;page=433</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Ostatnia strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-05-17/atak-rosji-na-ukraine-stan-po-82-dniach</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 82 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-05-17/niemcy-prawne-podstawy-przejecia-kontroli-nad-rafineria-schwedt</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Niemcy prawne podstawy przejęcia kontroli nad rafinerią Schwedt</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-05-18/atak-rosji-na-ukraine-stan-po-83-dniach</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 83 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-05-18/tureckie-weto-wobec-czlonkostwa-finlandii-i-szwecji-w-nato</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Tureckie weto wobec członkostwa Finlandii i Szwecji w NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-05-19/atak-rosji-na-ukraine-stan-po-84-dniach</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 84 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-05-20/atak-rosji-na-ukraine-stan-po-85-dniach</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Atak Rosji na Ukrainę – stan po 85 dniach</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-05-20/sankcje-naftowe-miedzy-embargiem-a-podatkiem</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Sankcje naftowe między embargiem a podatkiem</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/analizy/2022-05-20/walki-w-tadzyckim-badachszanie</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Walki w tadżyckim Badachszanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/komentarze-osw/2022-05-17/niemcy-i-kryzys-globalizacji-strategie-dzialania</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Niemcy i kryzys globalizacji strategie działania</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://www.osw.waw.pl/pl/publikacje/komentarze-osw/2022-05-20/urodzaj-na-gazoporty-awaryjna-dywersyfikacja-dostaw-gazu-w</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Urodzaj na gazoporty Awaryjna dywersyfikacja dostaw gazu w Niemczech</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
